--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN-DC20\IndustryInternship\Batch 2\01_Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\New folder (2)\Intership\_quocca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -396,9 +396,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm"/>
-  </numFmts>
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -483,7 +480,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -649,14 +646,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -802,63 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -877,6 +817,66 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3908,82 +3908,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="24"/>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="24"/>
       <c r="L3" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
+      <c r="F6" s="71"/>
+      <c r="G6" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="16"/>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5294,69 +5294,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="71" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="1" customFormat="1">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="42">
@@ -5378,9 +5378,15 @@
       <c r="H6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="K6" s="88">
+        <v>1</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="25.5">
@@ -5401,18 +5407,24 @@
       <c r="H7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="K7" s="88">
+        <v>0.8</v>
+      </c>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="68">
+      <c r="B8" s="84">
         <v>3</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="81" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5422,22 +5434,28 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="J8" s="12">
+        <v>43642</v>
+      </c>
+      <c r="K8" s="88">
+        <v>1</v>
+      </c>
       <c r="L8" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="69"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5445,18 +5463,24 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="J9" s="12">
+        <v>43643</v>
+      </c>
+      <c r="K9" s="88">
+        <v>1</v>
+      </c>
       <c r="L9" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="69"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5464,9 +5488,11 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="12">
+        <v>43643</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="49" t="s">
@@ -5474,8 +5500,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="69"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5483,8 +5509,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="75"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -5493,8 +5519,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5502,8 +5528,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="75"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -5512,27 +5538,27 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="70"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="81" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="8">
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="75"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="68">
+      <c r="B14" s="84">
         <v>4</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5542,10 +5568,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
@@ -5554,8 +5580,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="69"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5563,8 +5589,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="75"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -5573,8 +5599,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5582,8 +5608,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="75"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -5592,8 +5618,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="69"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5601,8 +5627,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="75"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -5611,8 +5637,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="69"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5620,8 +5646,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="75"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -5630,8 +5656,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5639,8 +5665,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="75"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -5649,8 +5675,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5658,8 +5684,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="75"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -5668,8 +5694,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="78"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5677,8 +5703,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="75"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -5687,8 +5713,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="69"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5696,8 +5722,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="75"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -5706,8 +5732,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="69"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5715,8 +5741,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="75"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5725,8 +5751,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="69"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5734,8 +5760,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="75"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5744,8 +5770,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="78"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5753,8 +5779,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5763,16 +5789,16 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="69"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="81" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="73"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5780,10 +5806,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="69">
+      <c r="B27" s="75">
         <v>5</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="85" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5793,7 +5819,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="81" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5805,16 +5831,16 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="70"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="81" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
       <c r="E28" s="8">
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="73"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5844,7 +5870,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="87" t="s">
+      <c r="L29" s="68" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5852,13 +5878,13 @@
       <c r="B30" s="42">
         <v>7</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="64">
         <v>4</v>
       </c>
       <c r="F30" s="9"/>
@@ -5874,33 +5900,38 @@
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="66">
         <f>SUM(E11:E30)</f>
         <v>400</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66" t="s">
         <v>105</v>
       </c>
       <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="D32" s="85"/>
-      <c r="E32" s="85">
+      <c r="D32" s="66"/>
+      <c r="E32" s="66">
         <f>E31/5/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85" t="s">
+      <c r="F32" s="66"/>
+      <c r="G32" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="86"/>
+      <c r="H32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:B5"/>
@@ -5917,11 +5948,6 @@
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C14:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -818,6 +818,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,47 +839,44 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3908,82 +3908,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="12.75" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="24"/>
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="24"/>
       <c r="L3" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="16"/>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5294,69 +5294,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="4" spans="2:12" ht="40.5" customHeight="1">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="72"/>
+      <c r="G4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="71" t="s">
+      <c r="L4" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="1" customFormat="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" ht="33.75" customHeight="1">
       <c r="B6" s="42">
@@ -5378,15 +5378,9 @@
       <c r="H6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="J6" s="12">
-        <v>43640</v>
-      </c>
-      <c r="K6" s="88">
-        <v>1</v>
-      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="25.5">
@@ -5407,24 +5401,18 @@
       <c r="H7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12">
-        <v>43640</v>
-      </c>
-      <c r="J7" s="12">
-        <v>43641</v>
-      </c>
-      <c r="K7" s="88">
-        <v>0.8</v>
-      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="84">
+      <c r="B8" s="82">
         <v>3</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5434,28 +5422,22 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12">
-        <v>43641</v>
-      </c>
-      <c r="J8" s="12">
-        <v>43642</v>
-      </c>
-      <c r="K8" s="88">
-        <v>1</v>
-      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5463,24 +5445,18 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="12">
-        <v>43642</v>
-      </c>
-      <c r="J9" s="12">
-        <v>43643</v>
-      </c>
-      <c r="K9" s="88">
-        <v>1</v>
-      </c>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="75"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5488,20 +5464,18 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="12">
-        <v>43643</v>
-      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="75"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5509,18 +5483,18 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5528,18 +5502,18 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="69"/>
       <c r="L12" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="76"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5547,15 +5521,15 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="79"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="84">
+      <c r="B14" s="82">
         <v>4</v>
       </c>
       <c r="C14" s="85" t="s">
@@ -5568,19 +5542,19 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="79"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="69"/>
       <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="75"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
@@ -5589,17 +5563,17 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="69"/>
       <c r="L15" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="75"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
@@ -5608,8 +5582,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -5618,7 +5592,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="75"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
@@ -5627,8 +5601,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -5637,7 +5611,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="75"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
@@ -5646,8 +5620,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -5656,7 +5630,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="75"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
@@ -5665,8 +5639,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -5675,7 +5649,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="75"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
@@ -5684,8 +5658,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -5694,7 +5668,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="75"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
@@ -5703,8 +5677,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -5713,7 +5687,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="75"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
@@ -5722,8 +5696,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -5732,7 +5706,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="75"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
@@ -5741,8 +5715,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5751,7 +5725,7 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="75"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
@@ -5760,8 +5734,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5770,7 +5744,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="75"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
@@ -5779,8 +5753,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5789,7 +5763,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="75"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="87"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
@@ -5798,7 +5772,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="83"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5806,7 +5780,7 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="75">
+      <c r="B27" s="83">
         <v>5</v>
       </c>
       <c r="C27" s="85" t="s">
@@ -5819,7 +5793,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="79" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5831,7 +5805,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="76"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="87"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
@@ -5840,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="83"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5933,6 +5907,10 @@
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="B14:B26"/>
     <mergeCell ref="B27:B28"/>
+    <mergeCell ref="H8:H25"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C14:C26"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -5944,10 +5922,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H8:H25"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C14:C26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\New folder (2)\Intership\_quocca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\New folder (2)\Intership\_quocca\Report_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5378,9 +5378,15 @@
       <c r="H6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="K6" s="69">
+        <v>1</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="25.5">
@@ -5401,9 +5407,15 @@
       <c r="H7" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="69"/>
+      <c r="I7" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J7" s="12">
+        <v>43641</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0.8</v>
+      </c>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
@@ -5428,9 +5440,15 @@
       <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="69"/>
+      <c r="I8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="J8" s="12">
+        <v>43642</v>
+      </c>
+      <c r="K8" s="69">
+        <v>1</v>
+      </c>
       <c r="L8" s="49" t="s">
         <v>43</v>
       </c>
@@ -5447,9 +5465,15 @@
       <c r="F9" s="8"/>
       <c r="G9" s="80"/>
       <c r="H9" s="77"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="69"/>
+      <c r="I9" s="12">
+        <v>43642</v>
+      </c>
+      <c r="J9" s="12">
+        <v>43643</v>
+      </c>
+      <c r="K9" s="69">
+        <v>1</v>
+      </c>
       <c r="L9" s="49" t="s">
         <v>34</v>
       </c>
@@ -5466,9 +5490,15 @@
       <c r="F10" s="8"/>
       <c r="G10" s="80"/>
       <c r="H10" s="77"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="69"/>
+      <c r="I10" s="12">
+        <v>43643</v>
+      </c>
+      <c r="J10" s="12">
+        <v>43644</v>
+      </c>
+      <c r="K10" s="69">
+        <v>1</v>
+      </c>
       <c r="L10" s="49" t="s">
         <v>46</v>
       </c>
@@ -5485,9 +5515,15 @@
       <c r="F11" s="8"/>
       <c r="G11" s="80"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="69"/>
+      <c r="I11" s="12">
+        <v>43644</v>
+      </c>
+      <c r="J11" s="12">
+        <v>43647</v>
+      </c>
+      <c r="K11" s="69">
+        <v>1</v>
+      </c>
       <c r="L11" s="49" t="s">
         <v>50</v>
       </c>
@@ -5504,9 +5540,15 @@
       <c r="F12" s="8"/>
       <c r="G12" s="80"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="69"/>
+      <c r="I12" s="12">
+        <v>43647</v>
+      </c>
+      <c r="J12" s="12">
+        <v>43648</v>
+      </c>
+      <c r="K12" s="69">
+        <v>1</v>
+      </c>
       <c r="L12" s="49" t="s">
         <v>48</v>
       </c>
@@ -5523,9 +5565,15 @@
       <c r="F13" s="8"/>
       <c r="G13" s="81"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="69"/>
+      <c r="I13" s="12">
+        <v>43650</v>
+      </c>
+      <c r="J13" s="12">
+        <v>43650</v>
+      </c>
+      <c r="K13" s="69">
+        <v>1</v>
+      </c>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
@@ -5546,9 +5594,15 @@
         <v>62</v>
       </c>
       <c r="H14" s="77"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="69"/>
+      <c r="I14" s="12">
+        <v>43648</v>
+      </c>
+      <c r="J14" s="12">
+        <v>43649</v>
+      </c>
+      <c r="K14" s="69">
+        <v>1</v>
+      </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
@@ -5565,9 +5619,15 @@
       <c r="F15" s="15"/>
       <c r="G15" s="80"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="69"/>
+      <c r="I15" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J15" s="12">
+        <v>43650</v>
+      </c>
+      <c r="K15" s="69">
+        <v>1</v>
+      </c>
       <c r="L15" s="7" t="s">
         <v>65</v>
       </c>
@@ -5584,7 +5644,9 @@
       <c r="F16" s="15"/>
       <c r="G16" s="80"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12">
+        <v>43650</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="7" t="s">

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\New folder (2)\Intership\_quocca\Report_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\git intership\Intership\_quocca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -839,6 +839,30 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,31 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1271,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5414,17 +5414,17 @@
         <v>43641</v>
       </c>
       <c r="K7" s="69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L7" s="48" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5434,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="84" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12">
@@ -5454,8 +5454,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="83"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5463,8 +5463,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="77"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="12">
         <v>43642</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5488,8 +5488,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="77"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="12">
         <v>43643</v>
       </c>
@@ -5504,8 +5504,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="83"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5513,8 +5513,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="12">
         <v>43644</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="83"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5538,8 +5538,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="77"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="12">
         <v>43647</v>
       </c>
@@ -5554,8 +5554,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5563,8 +5563,8 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="77"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="12">
         <v>43650</v>
       </c>
@@ -5577,10 +5577,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="76" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5590,10 +5590,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="12">
         <v>43648</v>
       </c>
@@ -5608,8 +5608,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5617,8 +5617,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="77"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="12">
         <v>43649</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5642,20 +5642,24 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="12">
         <v>43650</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="12">
+        <v>43651</v>
+      </c>
+      <c r="K16" s="69">
+        <v>1</v>
+      </c>
       <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5663,18 +5667,24 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="12">
+        <v>43651</v>
+      </c>
+      <c r="J17" s="12">
+        <v>43654</v>
+      </c>
+      <c r="K17" s="69">
+        <v>1</v>
+      </c>
       <c r="L17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5682,18 +5692,24 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="12">
+        <v>43654</v>
+      </c>
+      <c r="J18" s="12">
+        <v>43655</v>
+      </c>
+      <c r="K18" s="69">
+        <v>1</v>
+      </c>
       <c r="L18" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5701,18 +5717,24 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="12">
+        <v>43655</v>
+      </c>
+      <c r="J19" s="12">
+        <v>43656</v>
+      </c>
+      <c r="K19" s="69">
+        <v>1</v>
+      </c>
       <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="83"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5720,18 +5742,24 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="12">
+        <v>43656</v>
+      </c>
+      <c r="J20" s="12">
+        <v>43657</v>
+      </c>
+      <c r="K20" s="69">
+        <v>1</v>
+      </c>
       <c r="L20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5739,9 +5767,11 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="12"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="12">
+        <v>43657</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="7" t="s">
@@ -5749,8 +5779,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5758,8 +5788,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -5768,8 +5798,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5777,8 +5807,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="77"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5787,8 +5817,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5796,8 +5826,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="77"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5806,8 +5836,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5815,8 +5845,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="86"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5825,8 +5855,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="83"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5834,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="81"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5842,10 +5872,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="83">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="76" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5855,7 +5885,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5867,8 +5897,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5876,7 +5906,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5963,12 +5993,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -5984,6 +6008,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>
@@ -5997,12 +6027,12 @@
     <hyperlink ref="L18" r:id="rId9"/>
     <hyperlink ref="L19" r:id="rId10"/>
     <hyperlink ref="L20" r:id="rId11"/>
-    <hyperlink ref="L21" r:id="rId12"/>
-    <hyperlink ref="L22" r:id="rId13"/>
-    <hyperlink ref="L23" r:id="rId14"/>
-    <hyperlink ref="L7" r:id="rId15"/>
-    <hyperlink ref="L24" r:id="rId16"/>
-    <hyperlink ref="L27" r:id="rId17"/>
+    <hyperlink ref="L23" r:id="rId12"/>
+    <hyperlink ref="L7" r:id="rId13"/>
+    <hyperlink ref="L24" r:id="rId14"/>
+    <hyperlink ref="L27" r:id="rId15"/>
+    <hyperlink ref="L21" r:id="rId16"/>
+    <hyperlink ref="L22" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -839,40 +839,40 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5421,10 +5421,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5434,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12">
@@ -5454,8 +5454,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5463,8 +5463,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="12">
         <v>43642</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5488,8 +5488,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="12">
         <v>43643</v>
       </c>
@@ -5504,8 +5504,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="82"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5513,8 +5513,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="12">
         <v>43644</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="82"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5538,8 +5538,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="12">
         <v>43647</v>
       </c>
@@ -5554,8 +5554,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5563,8 +5563,8 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="12">
         <v>43650</v>
       </c>
@@ -5577,10 +5577,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="81">
+      <c r="B14" s="82">
         <v>4</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5590,10 +5590,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="12">
         <v>43648</v>
       </c>
@@ -5608,8 +5608,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5617,8 +5617,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="12">
         <v>43649</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5642,8 +5642,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="12">
         <v>43650</v>
       </c>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5667,8 +5667,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="12">
         <v>43651</v>
       </c>
@@ -5683,8 +5683,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="82"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5692,8 +5692,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="12">
         <v>43654</v>
       </c>
@@ -5708,8 +5708,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5717,8 +5717,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="12">
         <v>43655</v>
       </c>
@@ -5733,8 +5733,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5742,8 +5742,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="12">
         <v>43656</v>
       </c>
@@ -5758,8 +5758,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5767,20 +5767,24 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="12">
         <v>43657</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="J21" s="12">
+        <v>43658</v>
+      </c>
+      <c r="K21" s="69">
+        <v>1</v>
+      </c>
       <c r="L21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="82"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5788,18 +5792,24 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="12">
+        <v>43661</v>
+      </c>
+      <c r="J22" s="12">
+        <v>43662</v>
+      </c>
+      <c r="K22" s="69">
+        <v>1</v>
+      </c>
       <c r="L22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5807,18 +5817,24 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="12">
+        <v>43660</v>
+      </c>
+      <c r="J23" s="12">
+        <v>43664</v>
+      </c>
+      <c r="K23" s="69">
+        <v>0.8</v>
+      </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="82"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5826,18 +5842,24 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="12">
+        <v>43660</v>
+      </c>
+      <c r="J24" s="12">
+        <v>43664</v>
+      </c>
+      <c r="K24" s="69">
+        <v>0.8</v>
+      </c>
       <c r="L24" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5845,8 +5867,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5855,8 +5877,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="77"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5864,7 +5886,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5872,10 +5894,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="82">
+      <c r="B27" s="83">
         <v>5</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="85" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5885,7 +5907,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="79" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5897,8 +5919,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="77"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5906,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5993,6 +6015,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6008,12 +6036,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -839,6 +839,30 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,31 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4517,7 +4517,7 @@
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5421,10 +5421,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="82">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5434,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="84" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12">
@@ -5454,8 +5454,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="83"/>
-      <c r="C9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5463,8 +5463,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="77"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="12">
         <v>43642</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5488,8 +5488,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="77"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="12">
         <v>43643</v>
       </c>
@@ -5504,8 +5504,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="83"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5513,8 +5513,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="77"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="12">
         <v>43644</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="83"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5538,8 +5538,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="77"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="12">
         <v>43647</v>
       </c>
@@ -5554,8 +5554,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5563,8 +5563,8 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="77"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="12">
         <v>43650</v>
       </c>
@@ -5577,10 +5577,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="82">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="76" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5590,10 +5590,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="77"/>
+      <c r="H14" s="85"/>
       <c r="I14" s="12">
         <v>43648</v>
       </c>
@@ -5608,8 +5608,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5617,8 +5617,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="77"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="12">
         <v>43649</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5642,8 +5642,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="12">
         <v>43650</v>
       </c>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="83"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5667,8 +5667,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="77"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="12">
         <v>43651</v>
       </c>
@@ -5683,8 +5683,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5692,8 +5692,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="77"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="12">
         <v>43654</v>
       </c>
@@ -5708,8 +5708,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5717,8 +5717,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="12">
         <v>43655</v>
       </c>
@@ -5733,8 +5733,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="83"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5742,8 +5742,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="77"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="12">
         <v>43656</v>
       </c>
@@ -5758,8 +5758,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5767,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="77"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="12">
         <v>43657</v>
       </c>
@@ -5783,8 +5783,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="83"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5792,8 +5792,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="77"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="12">
         <v>43661</v>
       </c>
@@ -5808,8 +5808,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5817,8 +5817,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="77"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="12">
         <v>43660</v>
       </c>
@@ -5833,8 +5833,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5842,8 +5842,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="77"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="12">
         <v>43660</v>
       </c>
@@ -5858,8 +5858,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5867,9 +5867,11 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="12">
+        <v>43664</v>
+      </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="7" t="s">
@@ -5877,8 +5879,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="83"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="81"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5894,10 +5896,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="83">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="76" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5907,7 +5909,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5919,8 +5921,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="84"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="81"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6015,12 +6017,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6036,6 +6032,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_quocca/ReactJS_Training_Schedule.xlsx
+++ b/_quocca/ReactJS_Training_Schedule.xlsx
@@ -839,40 +839,40 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5421,10 +5421,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="81">
+      <c r="B8" s="82">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5434,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12">
@@ -5454,8 +5454,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5463,8 +5463,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="12">
         <v>43642</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5488,8 +5488,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="12">
         <v>43643</v>
       </c>
@@ -5504,8 +5504,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="82"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5513,8 +5513,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="12">
         <v>43644</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="82"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5538,8 +5538,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="12">
         <v>43647</v>
       </c>
@@ -5554,8 +5554,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5563,8 +5563,8 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="12">
         <v>43650</v>
       </c>
@@ -5577,10 +5577,10 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="81">
+      <c r="B14" s="82">
         <v>4</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5590,10 +5590,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="12">
         <v>43648</v>
       </c>
@@ -5608,8 +5608,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5617,8 +5617,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="12">
         <v>43649</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5642,8 +5642,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="12">
         <v>43650</v>
       </c>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5667,8 +5667,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="12">
         <v>43651</v>
       </c>
@@ -5683,8 +5683,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="82"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5692,8 +5692,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="12">
         <v>43654</v>
       </c>
@@ -5708,8 +5708,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5717,8 +5717,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="12">
         <v>43655</v>
       </c>
@@ -5733,8 +5733,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5742,8 +5742,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="12">
         <v>43656</v>
       </c>
@@ -5758,8 +5758,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5767,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="12">
         <v>43657</v>
       </c>
@@ -5783,8 +5783,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="82"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5792,8 +5792,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="12">
         <v>43661</v>
       </c>
@@ -5808,8 +5808,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5817,24 +5817,24 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="12">
         <v>43660</v>
       </c>
       <c r="J23" s="12">
-        <v>43664</v>
+        <v>43666</v>
       </c>
       <c r="K23" s="69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="82"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5842,24 +5842,24 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="12">
         <v>43660</v>
       </c>
       <c r="J24" s="12">
-        <v>43664</v>
+        <v>43666</v>
       </c>
       <c r="K24" s="69">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L24" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5867,20 +5867,24 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="86"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="12">
         <v>43664</v>
       </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="12">
+        <v>43667</v>
+      </c>
+      <c r="K25" s="69">
+        <v>1</v>
+      </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="77"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5896,10 +5900,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="82">
+      <c r="B27" s="83">
         <v>5</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="85" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5909,20 +5913,26 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="79" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="I27" s="12">
+        <v>43667</v>
+      </c>
+      <c r="J27" s="12">
+        <v>43671</v>
+      </c>
+      <c r="K27" s="69">
+        <v>0.7</v>
+      </c>
       <c r="L27" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="77"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6017,6 +6027,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6032,12 +6048,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>
